--- a/Data/16052017_CoralNecrosis/Analysisofnumbersbygenotype.xlsx
+++ b/Data/16052017_CoralNecrosis/Analysisofnumbersbygenotype.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Rich/Documents/Grad School/Internship/Lab/Data/16052017_CoralNecrosis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Rich/Documents/GradSchool/Internship/Lab/Data/AcroporaStressTest/Data/16052017_CoralNecrosis/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="17920" tabRatio="500"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="17920" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Mortality" sheetId="1" r:id="rId1"/>
@@ -418,6 +418,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -543,11 +544,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1754800432"/>
-        <c:axId val="1754802752"/>
+        <c:axId val="-211488032"/>
+        <c:axId val="-211389312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1754800432"/>
+        <c:axId val="-211488032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -590,7 +591,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1754802752"/>
+        <c:crossAx val="-211389312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -598,7 +599,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1754802752"/>
+        <c:axId val="-211389312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -649,7 +650,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1754800432"/>
+        <c:crossAx val="-211488032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1541,8 +1542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2671,8 +2672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3461,7 +3462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AD51"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="113" workbookViewId="0">
+    <sheetView zoomScale="113" workbookViewId="0">
       <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>

--- a/Data/16052017_CoralNecrosis/Analysisofnumbersbygenotype.xlsx
+++ b/Data/16052017_CoralNecrosis/Analysisofnumbersbygenotype.xlsx
@@ -327,8 +327,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -347,9 +349,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
@@ -544,11 +548,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-211488032"/>
-        <c:axId val="-211389312"/>
+        <c:axId val="-2097229088"/>
+        <c:axId val="-2022165168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-211488032"/>
+        <c:axId val="-2097229088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -591,7 +595,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-211389312"/>
+        <c:crossAx val="-2022165168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -599,7 +603,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-211389312"/>
+        <c:axId val="-2022165168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -650,7 +654,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-211488032"/>
+        <c:crossAx val="-2097229088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1543,7 +1547,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="A2" sqref="A2:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
